--- a/biology/Botanique/Pseudobulbe/Pseudobulbe.xlsx
+++ b/biology/Botanique/Pseudobulbe/Pseudobulbe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les orchidées, le pseudobulbe est une tige modifiée qui est alors très charnue.
 De formes diverses, les pseudobulbes sont généralement globulaires ou ovoïdes, parfois comprimés latéralement. Ils peuvent être aussi cylindriques et allongés, parfois sur plusieurs mètres selon les espèces.
